--- a/LD1014/list.xlsx
+++ b/LD1014/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="479">
   <si>
     <t xml:space="preserve">LD1014 List</t>
   </si>
@@ -914,6 +914,9 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved nw</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_99</t>
@@ -1670,22 +1673,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9211E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1756,8 +1743,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ465"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19:C464"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A263" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C293" activeCellId="0" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4705,10 +4692,13 @@
       <c r="B288" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C288" s="1" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B289" s="19" t="s">
         <v>15</v>
@@ -4719,7 +4709,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B290" s="19" t="s">
         <v>15</v>
@@ -4730,7 +4720,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>17</v>
@@ -4738,15 +4728,18 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>17</v>
@@ -4754,7 +4747,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>17</v>
@@ -4762,7 +4755,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>17</v>
@@ -4773,7 +4766,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>17</v>
@@ -4784,7 +4777,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>15</v>
@@ -4792,7 +4785,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>17</v>
@@ -4800,7 +4793,7 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>17</v>
@@ -4808,7 +4801,7 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>17</v>
@@ -4816,7 +4809,7 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>15</v>
@@ -4824,7 +4817,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>17</v>
@@ -4832,7 +4825,7 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>15</v>
@@ -4840,7 +4833,7 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>17</v>
@@ -4848,7 +4841,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>17</v>
@@ -4856,7 +4849,7 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>17</v>
@@ -4864,7 +4857,7 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>17</v>
@@ -4872,7 +4865,7 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>17</v>
@@ -4880,7 +4873,7 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>17</v>
@@ -4888,7 +4881,7 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>17</v>
@@ -4896,7 +4889,7 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>15</v>
@@ -4904,7 +4897,7 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>17</v>
@@ -4912,7 +4905,7 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>17</v>
@@ -4920,7 +4913,7 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>15</v>
@@ -4928,7 +4921,7 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>17</v>
@@ -4936,7 +4929,7 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>15</v>
@@ -4944,7 +4937,7 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>17</v>
@@ -4952,7 +4945,7 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>17</v>
@@ -4960,7 +4953,7 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>17</v>
@@ -4968,7 +4961,7 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>15</v>
@@ -4976,7 +4969,7 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>17</v>
@@ -4984,7 +4977,7 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>15</v>
@@ -4992,7 +4985,7 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>15</v>
@@ -5000,7 +4993,7 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>15</v>
@@ -5008,7 +5001,7 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>17</v>
@@ -5016,7 +5009,7 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>17</v>
@@ -5024,7 +5017,7 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>17</v>
@@ -5032,7 +5025,7 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>17</v>
@@ -5040,7 +5033,7 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>17</v>
@@ -5048,7 +5041,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>17</v>
@@ -5056,7 +5049,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>15</v>
@@ -5064,7 +5057,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>17</v>
@@ -5072,7 +5065,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>17</v>
@@ -5080,7 +5073,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>15</v>
@@ -5088,7 +5081,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>17</v>
@@ -5096,7 +5089,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>17</v>
@@ -5104,7 +5097,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>17</v>
@@ -5112,7 +5105,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>15</v>
@@ -5120,7 +5113,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>17</v>
@@ -5128,7 +5121,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>15</v>
@@ -5136,7 +5129,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>17</v>
@@ -5144,7 +5137,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>17</v>
@@ -5152,7 +5145,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>17</v>
@@ -5160,7 +5153,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>15</v>
@@ -5168,7 +5161,7 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>17</v>
@@ -5176,7 +5169,7 @@
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>17</v>
@@ -5184,7 +5177,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>15</v>
@@ -5192,7 +5185,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>17</v>
@@ -5200,7 +5193,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>17</v>
@@ -5208,7 +5201,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>17</v>
@@ -5216,7 +5209,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="17" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>17</v>
@@ -5224,7 +5217,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>15</v>
@@ -5232,7 +5225,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>17</v>
@@ -5240,7 +5233,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>17</v>
@@ -5248,7 +5241,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>17</v>
@@ -5256,7 +5249,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>15</v>
@@ -5264,18 +5257,18 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B357" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C357" s="18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>17</v>
@@ -5283,7 +5276,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>17</v>
@@ -5291,7 +5284,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>15</v>
@@ -5299,7 +5292,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>17</v>
@@ -5307,7 +5300,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>15</v>
@@ -5315,7 +5308,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>17</v>
@@ -5323,18 +5316,18 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B364" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C364" s="18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>15</v>
@@ -5342,7 +5335,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>17</v>
@@ -5350,7 +5343,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>17</v>
@@ -5358,7 +5351,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>17</v>
@@ -5366,18 +5359,18 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B369" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C369" s="18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>17</v>
@@ -5385,7 +5378,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>17</v>
@@ -5393,7 +5386,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>17</v>
@@ -5401,18 +5394,18 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B373" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C373" s="18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>17</v>
@@ -5420,7 +5413,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>15</v>
@@ -5428,7 +5421,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>17</v>
@@ -5436,7 +5429,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>15</v>
@@ -5444,7 +5437,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>15</v>
@@ -5452,7 +5445,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>17</v>
@@ -5460,7 +5453,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>17</v>
@@ -5468,7 +5461,7 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>17</v>
@@ -5476,7 +5469,7 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>17</v>
@@ -5484,7 +5477,7 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>17</v>
@@ -5492,7 +5485,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>15</v>
@@ -5500,7 +5493,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>17</v>
@@ -5508,7 +5501,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>15</v>
@@ -5516,7 +5509,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>17</v>
@@ -5524,7 +5517,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>15</v>
@@ -5532,7 +5525,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>15</v>
@@ -5540,7 +5533,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>17</v>
@@ -5548,7 +5541,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>15</v>
@@ -5556,7 +5549,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>17</v>
@@ -5564,7 +5557,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>17</v>
@@ -5572,7 +5565,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>17</v>
@@ -5580,7 +5573,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>17</v>
@@ -5588,7 +5581,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>15</v>
@@ -5596,7 +5589,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="17" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>17</v>
@@ -5604,7 +5597,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>17</v>
@@ -5612,7 +5605,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>17</v>
@@ -5620,7 +5613,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>17</v>
@@ -5628,7 +5621,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>15</v>
@@ -5636,7 +5629,7 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>17</v>
@@ -5644,7 +5637,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>17</v>
@@ -5652,7 +5645,7 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>17</v>
@@ -5660,7 +5653,7 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>15</v>
@@ -5668,7 +5661,7 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>15</v>
@@ -5676,7 +5669,7 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>15</v>
@@ -5684,29 +5677,29 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B408" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C408" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="B409" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C409" s="18" t="s">
         <v>420</v>
-      </c>
-      <c r="B409" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C409" s="18" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="17" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>17</v>
@@ -5714,7 +5707,7 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>15</v>
@@ -5722,7 +5715,7 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>17</v>
@@ -5730,7 +5723,7 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>15</v>
@@ -5738,7 +5731,7 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>15</v>
@@ -5746,18 +5739,18 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="18" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B415" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C415" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>17</v>
@@ -5765,18 +5758,18 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="18" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B417" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C417" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>15</v>
@@ -5784,7 +5777,7 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>15</v>
@@ -5792,7 +5785,7 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>17</v>
@@ -5800,7 +5793,7 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>17</v>
@@ -5808,7 +5801,7 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>17</v>
@@ -5816,7 +5809,7 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>17</v>
@@ -5824,7 +5817,7 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>15</v>
@@ -5832,7 +5825,7 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="15" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>15</v>
@@ -5840,7 +5833,7 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>17</v>
@@ -5848,7 +5841,7 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="15" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>15</v>
@@ -5856,7 +5849,7 @@
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>15</v>
@@ -5864,7 +5857,7 @@
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>15</v>
@@ -5872,18 +5865,18 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B430" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C430" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>17</v>
@@ -5891,18 +5884,18 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B432" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C432" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="17" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>17</v>
@@ -5910,7 +5903,7 @@
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>15</v>
@@ -5918,29 +5911,29 @@
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B435" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C435" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B436" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C436" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>15</v>
@@ -5948,7 +5941,7 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>17</v>
@@ -5956,7 +5949,7 @@
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>15</v>
@@ -5964,7 +5957,7 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="15" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>17</v>
@@ -5972,7 +5965,7 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>17</v>
@@ -5980,7 +5973,7 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>15</v>
@@ -5988,7 +5981,7 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>17</v>
@@ -5996,7 +5989,7 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>15</v>
@@ -6004,7 +5997,7 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>17</v>
@@ -6012,7 +6005,7 @@
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>17</v>
@@ -6020,7 +6013,7 @@
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>17</v>
@@ -6028,7 +6021,7 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>15</v>
@@ -6036,7 +6029,7 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>17</v>
@@ -6044,7 +6037,7 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>15</v>
@@ -6052,7 +6045,7 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="17" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>17</v>
@@ -6060,7 +6053,7 @@
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>17</v>
@@ -6068,7 +6061,7 @@
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>15</v>
@@ -6076,7 +6069,7 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="15" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>17</v>
@@ -6084,7 +6077,7 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="17" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>17</v>
@@ -6092,73 +6085,73 @@
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B456" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C456" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="B457" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C457" s="18" t="s">
         <v>469</v>
-      </c>
-      <c r="B457" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C457" s="18" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="15" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="18" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B459" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C459" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B461" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C461" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>17</v>
@@ -6166,7 +6159,7 @@
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>17</v>
@@ -6174,7 +6167,7 @@
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>15</v>

--- a/LD1014/list.xlsx
+++ b/LD1014/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="480">
   <si>
     <t xml:space="preserve">LD1014 List</t>
   </si>
@@ -998,6 +998,9 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved jowi</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_163</t>
@@ -1743,8 +1746,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ465"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A263" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C293" activeCellId="0" sqref="C293"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A305" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C319" activeCellId="0" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4926,10 +4929,13 @@
       <c r="B315" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C315" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>15</v>
@@ -4937,7 +4943,7 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>17</v>
@@ -4945,15 +4951,18 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>17</v>
@@ -4961,7 +4970,7 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>15</v>
@@ -4969,7 +4978,7 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>17</v>
@@ -4977,7 +4986,7 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>15</v>
@@ -4985,7 +4994,7 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>15</v>
@@ -4993,7 +5002,7 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>15</v>
@@ -5001,7 +5010,7 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>17</v>
@@ -5009,7 +5018,7 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>17</v>
@@ -5017,7 +5026,7 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>17</v>
@@ -5025,7 +5034,7 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>17</v>
@@ -5033,7 +5042,7 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>17</v>
@@ -5041,7 +5050,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>17</v>
@@ -5049,7 +5058,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>15</v>
@@ -5057,7 +5066,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>17</v>
@@ -5065,7 +5074,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>17</v>
@@ -5073,7 +5082,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>15</v>
@@ -5081,7 +5090,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>17</v>
@@ -5089,7 +5098,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="17" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>17</v>
@@ -5097,7 +5106,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>17</v>
@@ -5105,7 +5114,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>15</v>
@@ -5113,7 +5122,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>17</v>
@@ -5121,7 +5130,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>15</v>
@@ -5129,7 +5138,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>17</v>
@@ -5137,7 +5146,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>17</v>
@@ -5145,7 +5154,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>17</v>
@@ -5153,7 +5162,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>15</v>
@@ -5161,7 +5170,7 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>17</v>
@@ -5169,7 +5178,7 @@
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>17</v>
@@ -5177,7 +5186,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>15</v>
@@ -5185,7 +5194,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>17</v>
@@ -5193,7 +5202,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>17</v>
@@ -5201,7 +5210,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>17</v>
@@ -5209,7 +5218,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="17" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>17</v>
@@ -5217,7 +5226,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>15</v>
@@ -5225,7 +5234,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>17</v>
@@ -5233,7 +5242,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>17</v>
@@ -5241,7 +5250,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>17</v>
@@ -5249,7 +5258,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>15</v>
@@ -5257,18 +5266,18 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B357" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C357" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>17</v>
@@ -5276,7 +5285,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>17</v>
@@ -5284,7 +5293,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>15</v>
@@ -5292,7 +5301,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>17</v>
@@ -5300,7 +5309,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>15</v>
@@ -5308,7 +5317,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>17</v>
@@ -5316,18 +5325,18 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B364" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C364" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>15</v>
@@ -5335,7 +5344,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>17</v>
@@ -5343,7 +5352,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>17</v>
@@ -5351,7 +5360,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>17</v>
@@ -5359,18 +5368,18 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B369" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C369" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>17</v>
@@ -5378,7 +5387,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>17</v>
@@ -5386,7 +5395,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>17</v>
@@ -5394,18 +5403,18 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B373" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C373" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>17</v>
@@ -5413,7 +5422,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>15</v>
@@ -5421,7 +5430,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>17</v>
@@ -5429,7 +5438,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>15</v>
@@ -5437,7 +5446,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>15</v>
@@ -5445,7 +5454,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>17</v>
@@ -5453,7 +5462,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>17</v>
@@ -5461,7 +5470,7 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>17</v>
@@ -5469,7 +5478,7 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>17</v>
@@ -5477,7 +5486,7 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>17</v>
@@ -5485,7 +5494,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>15</v>
@@ -5493,7 +5502,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>17</v>
@@ -5501,7 +5510,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>15</v>
@@ -5509,7 +5518,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>17</v>
@@ -5517,7 +5526,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>15</v>
@@ -5525,7 +5534,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>15</v>
@@ -5533,7 +5542,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>17</v>
@@ -5541,7 +5550,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>15</v>
@@ -5549,7 +5558,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>17</v>
@@ -5557,7 +5566,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>17</v>
@@ -5565,7 +5574,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>17</v>
@@ -5573,7 +5582,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>17</v>
@@ -5581,7 +5590,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>15</v>
@@ -5589,7 +5598,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>17</v>
@@ -5597,7 +5606,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>17</v>
@@ -5605,7 +5614,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>17</v>
@@ -5613,7 +5622,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>17</v>
@@ -5621,7 +5630,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>15</v>
@@ -5629,7 +5638,7 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>17</v>
@@ -5637,7 +5646,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>17</v>
@@ -5645,7 +5654,7 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>17</v>
@@ -5653,7 +5662,7 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>15</v>
@@ -5661,7 +5670,7 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>15</v>
@@ -5669,7 +5678,7 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>15</v>
@@ -5677,29 +5686,29 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B408" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C408" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="B409" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C409" s="18" t="s">
         <v>421</v>
-      </c>
-      <c r="B409" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C409" s="18" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="17" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>17</v>
@@ -5707,7 +5716,7 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>15</v>
@@ -5715,7 +5724,7 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>17</v>
@@ -5723,7 +5732,7 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>15</v>
@@ -5731,7 +5740,7 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>15</v>
@@ -5739,18 +5748,18 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="18" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B415" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C415" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>17</v>
@@ -5758,18 +5767,18 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B417" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C417" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>15</v>
@@ -5777,7 +5786,7 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>15</v>
@@ -5785,7 +5794,7 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>17</v>
@@ -5793,7 +5802,7 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>17</v>
@@ -5801,7 +5810,7 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="15" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>17</v>
@@ -5809,7 +5818,7 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="17" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>17</v>
@@ -5817,7 +5826,7 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>15</v>
@@ -5825,7 +5834,7 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="15" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>15</v>
@@ -5833,7 +5842,7 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>17</v>
@@ -5841,7 +5850,7 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>15</v>
@@ -5849,7 +5858,7 @@
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>15</v>
@@ -5857,7 +5866,7 @@
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>15</v>
@@ -5865,18 +5874,18 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B430" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C430" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>17</v>
@@ -5884,18 +5893,18 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="18" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B432" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C432" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="17" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>17</v>
@@ -5903,7 +5912,7 @@
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>15</v>
@@ -5911,29 +5920,29 @@
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B435" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C435" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B436" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C436" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>15</v>
@@ -5941,7 +5950,7 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="15" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>17</v>
@@ -5949,7 +5958,7 @@
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>15</v>
@@ -5957,7 +5966,7 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>17</v>
@@ -5965,7 +5974,7 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>17</v>
@@ -5973,7 +5982,7 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>15</v>
@@ -5981,7 +5990,7 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>17</v>
@@ -5989,7 +5998,7 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>15</v>
@@ -5997,7 +6006,7 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>17</v>
@@ -6005,7 +6014,7 @@
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>17</v>
@@ -6013,7 +6022,7 @@
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>17</v>
@@ -6021,7 +6030,7 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>15</v>
@@ -6029,7 +6038,7 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>17</v>
@@ -6037,7 +6046,7 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>15</v>
@@ -6045,7 +6054,7 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>17</v>
@@ -6053,7 +6062,7 @@
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>17</v>
@@ -6061,7 +6070,7 @@
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="15" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>15</v>
@@ -6069,7 +6078,7 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="15" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>17</v>
@@ -6077,7 +6086,7 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="17" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>17</v>
@@ -6085,73 +6094,73 @@
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B456" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C456" s="18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B457" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C457" s="18" t="s">
         <v>470</v>
-      </c>
-      <c r="B457" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C457" s="18" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="15" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="18" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B459" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C459" s="18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="17" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B461" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C461" s="18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>17</v>
@@ -6159,7 +6168,7 @@
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="15" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>17</v>
@@ -6167,7 +6176,7 @@
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>15</v>

--- a/LD1014/list.xlsx
+++ b/LD1014/list.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LD1014 List" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="LD1014 List" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="481">
   <si>
     <t xml:space="preserve">LD1014 List</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved RI</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_237</t>
@@ -1739,6 +1742,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1746,8 +1855,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ465"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A305" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C319" activeCellId="0" sqref="C319"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1915,16 +2024,19 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E19" s="16"/>
       <c r="F19" s="15"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="15"/>
@@ -1932,7 +2044,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
@@ -1943,10 +2055,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="1"/>
@@ -1954,10 +2066,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="1"/>
@@ -1965,10 +2077,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="15"/>
@@ -1976,10 +2091,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="1"/>
@@ -1987,10 +2102,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="1"/>
@@ -1998,10 +2113,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="1"/>
@@ -2009,10 +2124,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="15"/>
@@ -2020,10 +2135,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="15"/>
@@ -2031,10 +2146,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="1"/>
@@ -2042,10 +2160,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="15"/>
@@ -2053,7 +2171,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>15</v>
@@ -2064,10 +2182,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="15"/>
@@ -2075,10 +2193,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="1"/>
@@ -2086,10 +2204,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="15"/>
@@ -2097,10 +2215,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="15"/>
@@ -2108,10 +2226,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="1"/>
@@ -2119,7 +2237,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>15</v>
@@ -2130,7 +2248,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>15</v>
@@ -2141,10 +2259,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="15"/>
@@ -2152,10 +2270,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="15"/>
@@ -2163,7 +2281,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>15</v>
@@ -2174,10 +2292,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="1"/>
@@ -2185,10 +2303,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="15"/>
@@ -2196,10 +2314,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="1"/>
@@ -2207,10 +2325,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="15"/>
@@ -2218,7 +2336,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>15</v>
@@ -2229,10 +2347,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="1"/>
@@ -2240,10 +2358,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="15"/>
@@ -2251,10 +2369,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="1"/>
@@ -2262,7 +2380,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>15</v>
@@ -2273,10 +2391,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="1"/>
@@ -2284,10 +2402,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="15"/>
@@ -2295,10 +2413,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="1"/>
@@ -2306,10 +2424,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="1"/>
@@ -2317,10 +2435,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="1"/>
@@ -2328,7 +2446,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>15</v>
@@ -2339,7 +2457,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>15</v>
@@ -2350,7 +2468,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>15</v>
@@ -2361,10 +2479,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="15"/>
@@ -2372,10 +2490,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="15"/>
@@ -2383,10 +2501,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="1"/>
@@ -2394,10 +2512,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="1"/>
@@ -2405,10 +2523,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="15"/>
@@ -2416,7 +2534,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>15</v>
@@ -2427,10 +2545,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="1"/>
@@ -2438,7 +2556,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>15</v>
@@ -2449,10 +2567,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="15"/>
@@ -2460,10 +2578,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="15"/>
@@ -2471,7 +2589,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>15</v>
@@ -2482,7 +2600,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>15</v>
@@ -2493,7 +2611,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>15</v>
@@ -2504,7 +2622,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>15</v>
@@ -2515,10 +2633,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="15"/>
@@ -2526,10 +2644,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="15"/>
@@ -2537,10 +2655,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="15"/>
@@ -2548,7 +2666,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>15</v>
@@ -2559,10 +2677,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="1"/>
@@ -2570,7 +2688,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>15</v>
@@ -2581,7 +2699,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>15</v>
@@ -2592,7 +2710,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>15</v>
@@ -2603,7 +2721,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>15</v>
@@ -2614,10 +2732,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E83" s="16"/>
       <c r="F83" s="15"/>
@@ -2625,10 +2743,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="15"/>
@@ -2636,10 +2754,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="15"/>
@@ -2647,7 +2765,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>15</v>
@@ -2658,10 +2776,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="1"/>
@@ -2669,7 +2787,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>15</v>
@@ -2680,7 +2798,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>15</v>
@@ -2691,7 +2809,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>15</v>
@@ -2702,7 +2820,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>15</v>
@@ -2713,7 +2831,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>15</v>
@@ -2724,10 +2842,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="15"/>
@@ -2735,10 +2853,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E94" s="16"/>
       <c r="F94" s="15"/>
@@ -2746,10 +2864,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E95" s="16"/>
       <c r="F95" s="1"/>
@@ -2757,10 +2875,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="1"/>
@@ -2768,7 +2886,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>15</v>
@@ -2779,10 +2897,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="1"/>
@@ -2790,7 +2908,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>15</v>
@@ -2801,13 +2919,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E100" s="16"/>
       <c r="F100" s="15"/>
@@ -2815,13 +2933,13 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="E101" s="16"/>
       <c r="F101" s="15"/>
@@ -2829,13 +2947,13 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="1"/>
@@ -2843,13 +2961,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="15"/>
@@ -2857,13 +2975,13 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="15"/>
@@ -2871,10 +2989,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="15"/>
@@ -2882,10 +3000,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="15"/>
@@ -2893,7 +3011,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>15</v>
@@ -2904,7 +3022,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>15</v>
@@ -2915,10 +3033,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="15"/>
@@ -2926,10 +3044,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E110" s="16"/>
       <c r="F110" s="1"/>
@@ -2937,10 +3055,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="1"/>
@@ -2948,13 +3066,13 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E112" s="16"/>
       <c r="F112" s="15"/>
@@ -2962,13 +3080,13 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="E113" s="16"/>
       <c r="F113" s="1"/>
@@ -2976,7 +3094,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>15</v>
@@ -2987,13 +3105,13 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E115" s="16"/>
       <c r="F115" s="15"/>
@@ -3001,10 +3119,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E116" s="16"/>
       <c r="F116" s="15"/>
@@ -3012,10 +3130,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E117" s="16"/>
       <c r="F117" s="1"/>
@@ -3023,7 +3141,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>15</v>
@@ -3034,10 +3152,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E119" s="16"/>
       <c r="F119" s="1"/>
@@ -3045,10 +3163,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E120" s="16"/>
       <c r="F120" s="1"/>
@@ -3056,10 +3174,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E121" s="16"/>
       <c r="F121" s="1"/>
@@ -3067,10 +3185,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E122" s="16"/>
       <c r="F122" s="1"/>
@@ -3078,7 +3196,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>15</v>
@@ -3089,10 +3207,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E124" s="16"/>
       <c r="F124" s="1"/>
@@ -3100,13 +3218,13 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E125" s="16"/>
       <c r="F125" s="15"/>
@@ -3114,7 +3232,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>15</v>
@@ -3125,10 +3243,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E127" s="16"/>
       <c r="F127" s="15"/>
@@ -3136,10 +3254,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E128" s="16"/>
       <c r="F128" s="15"/>
@@ -3147,10 +3265,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E129" s="16"/>
       <c r="F129" s="15"/>
@@ -3158,7 +3276,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>15</v>
@@ -3169,7 +3287,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>15</v>
@@ -3180,10 +3298,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E132" s="16"/>
       <c r="F132" s="15"/>
@@ -3191,10 +3309,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E133" s="16"/>
       <c r="F133" s="15"/>
@@ -3202,7 +3320,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>15</v>
@@ -3213,7 +3331,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>15</v>
@@ -3224,10 +3342,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E136" s="16"/>
       <c r="F136" s="1"/>
@@ -3235,10 +3353,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E137" s="16"/>
       <c r="F137" s="1"/>
@@ -3246,7 +3364,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>15</v>
@@ -3257,10 +3375,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E139" s="16"/>
       <c r="F139" s="15"/>
@@ -3268,10 +3386,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E140" s="16"/>
       <c r="F140" s="1"/>
@@ -3279,10 +3397,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E141" s="16"/>
       <c r="F141" s="15"/>
@@ -3290,10 +3408,10 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E142" s="16"/>
       <c r="F142" s="1"/>
@@ -3301,13 +3419,13 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E143" s="16"/>
       <c r="F143" s="1"/>
@@ -3315,13 +3433,13 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="E144" s="16"/>
       <c r="F144" s="15"/>
@@ -3329,10 +3447,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E145" s="16"/>
       <c r="F145" s="15"/>
@@ -3340,10 +3458,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E146" s="16"/>
       <c r="F146" s="1"/>
@@ -3351,7 +3469,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>15</v>
@@ -3362,7 +3480,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>15</v>
@@ -3373,10 +3491,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E149" s="16"/>
       <c r="F149" s="1"/>
@@ -3384,10 +3502,10 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E150" s="16"/>
       <c r="F150" s="1"/>
@@ -3395,7 +3513,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>15</v>
@@ -3406,10 +3524,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E152" s="16"/>
       <c r="F152" s="1"/>
@@ -3417,10 +3535,10 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E153" s="16"/>
       <c r="F153" s="15"/>
@@ -3428,7 +3546,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>15</v>
@@ -3439,7 +3557,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>15</v>
@@ -3450,10 +3568,10 @@
     </row>
     <row r="156" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C156" s="1"/>
       <c r="E156" s="21"/>
@@ -3464,7 +3582,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>15</v>
@@ -3475,7 +3593,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>15</v>
@@ -3486,10 +3604,10 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E159" s="16"/>
       <c r="F159" s="15"/>
@@ -3497,7 +3615,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>15</v>
@@ -3508,10 +3626,10 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E161" s="16"/>
       <c r="F161" s="1"/>
@@ -3519,10 +3637,10 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E162" s="16"/>
       <c r="F162" s="15"/>
@@ -3530,10 +3648,10 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E163" s="16"/>
       <c r="F163" s="15"/>
@@ -3541,10 +3659,10 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E164" s="16"/>
       <c r="F164" s="1"/>
@@ -3552,10 +3670,10 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E165" s="16"/>
       <c r="F165" s="15"/>
@@ -3563,7 +3681,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>15</v>
@@ -3574,10 +3692,10 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E167" s="16"/>
       <c r="F167" s="15"/>
@@ -3585,10 +3703,10 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E168" s="16"/>
       <c r="F168" s="15"/>
@@ -3596,10 +3714,10 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E169" s="16"/>
       <c r="F169" s="1"/>
@@ -3607,10 +3725,10 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E170" s="16"/>
       <c r="F170" s="15"/>
@@ -3618,10 +3736,10 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E171" s="16"/>
       <c r="F171" s="15"/>
@@ -3629,7 +3747,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>15</v>
@@ -3640,10 +3758,10 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E173" s="16"/>
       <c r="F173" s="15"/>
@@ -3651,10 +3769,10 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E174" s="16"/>
       <c r="F174" s="15"/>
@@ -3662,13 +3780,13 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E175" s="16"/>
       <c r="F175" s="1"/>
@@ -3676,13 +3794,13 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="18" t="s">
         <v>178</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>177</v>
       </c>
       <c r="E176" s="16"/>
       <c r="F176" s="1"/>
@@ -3690,13 +3808,13 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B177" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E177" s="16"/>
       <c r="F177" s="15"/>
@@ -3704,13 +3822,13 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B178" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E178" s="16"/>
       <c r="F178" s="15"/>
@@ -3718,10 +3836,10 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C179" s="3"/>
       <c r="E179" s="16"/>
@@ -3730,10 +3848,10 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E180" s="16"/>
       <c r="F180" s="15"/>
@@ -3741,10 +3859,10 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E181" s="16"/>
       <c r="F181" s="15"/>
@@ -3752,7 +3870,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>15</v>
@@ -3763,10 +3881,10 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E183" s="16"/>
       <c r="F183" s="1"/>
@@ -3774,10 +3892,10 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E184" s="16"/>
       <c r="F184" s="15"/>
@@ -3785,10 +3903,10 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E185" s="16"/>
       <c r="F185" s="15"/>
@@ -3796,10 +3914,10 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E186" s="16"/>
       <c r="F186" s="1"/>
@@ -3807,89 +3925,89 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="B188" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C188" s="18" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B190" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B193" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B194" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>15</v>
@@ -3897,61 +4015,61 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>15</v>
@@ -3959,23 +4077,23 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>15</v>
@@ -3983,47 +4101,47 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>15</v>
@@ -4031,85 +4149,85 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B213" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B215" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>15</v>
@@ -4117,7 +4235,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>15</v>
@@ -4125,145 +4243,145 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B225" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C225" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B227" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C227" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B230" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C230" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B231" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C231" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>15</v>
@@ -4271,23 +4389,23 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>15</v>
@@ -4295,55 +4413,55 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>15</v>
@@ -4351,23 +4469,23 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>15</v>
@@ -4375,72 +4493,72 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B252" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C252" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B254" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C254" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>15</v>
@@ -4448,37 +4566,37 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B260" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C260" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B262" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C262" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>15</v>
@@ -4486,101 +4604,101 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B268" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C268" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B269" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C269" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>15</v>
@@ -4588,7 +4706,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>15</v>
@@ -4596,31 +4714,31 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>15</v>
@@ -4628,7 +4746,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>15</v>
@@ -4636,15 +4754,15 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>15</v>
@@ -4652,135 +4770,135 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B284" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C284" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B286" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C286" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B289" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C289" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B290" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C290" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>15</v>
@@ -4788,31 +4906,31 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>15</v>
@@ -4820,15 +4938,15 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>15</v>
@@ -4836,63 +4954,63 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>15</v>
@@ -4900,23 +5018,23 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>15</v>
@@ -4924,18 +5042,18 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>15</v>
@@ -4943,34 +5061,34 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>15</v>
@@ -4978,15 +5096,15 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>15</v>
@@ -4994,7 +5112,7 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>15</v>
@@ -5002,7 +5120,7 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>15</v>
@@ -5010,55 +5128,55 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>15</v>
@@ -5066,23 +5184,23 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>15</v>
@@ -5090,31 +5208,31 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>15</v>
@@ -5122,15 +5240,15 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>15</v>
@@ -5138,31 +5256,31 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>15</v>
@@ -5170,23 +5288,23 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>15</v>
@@ -5194,39 +5312,39 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>15</v>
@@ -5234,31 +5352,31 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>15</v>
@@ -5266,34 +5384,34 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B357" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C357" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>15</v>
@@ -5301,15 +5419,15 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>15</v>
@@ -5317,26 +5435,26 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B364" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C364" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>15</v>
@@ -5344,85 +5462,85 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B369" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C369" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B373" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C373" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>15</v>
@@ -5430,15 +5548,15 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>15</v>
@@ -5446,7 +5564,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>15</v>
@@ -5454,47 +5572,47 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>15</v>
@@ -5502,15 +5620,15 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>15</v>
@@ -5518,15 +5636,15 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>15</v>
@@ -5534,7 +5652,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>15</v>
@@ -5542,15 +5660,15 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>15</v>
@@ -5558,39 +5676,39 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="17" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>15</v>
@@ -5598,39 +5716,39 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>15</v>
@@ -5638,31 +5756,31 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>15</v>
@@ -5670,7 +5788,7 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>15</v>
@@ -5678,7 +5796,7 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>15</v>
@@ -5686,37 +5804,37 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B408" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C408" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B409" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C409" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="B409" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C409" s="18" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="17" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>15</v>
@@ -5724,15 +5842,15 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>15</v>
@@ -5740,7 +5858,7 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>15</v>
@@ -5748,37 +5866,37 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="18" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B415" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C415" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B417" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C417" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>15</v>
@@ -5786,7 +5904,7 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>15</v>
@@ -5794,39 +5912,39 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="15" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>15</v>
@@ -5834,7 +5952,7 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="15" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>15</v>
@@ -5842,15 +5960,15 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>15</v>
@@ -5858,7 +5976,7 @@
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>15</v>
@@ -5866,7 +5984,7 @@
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>15</v>
@@ -5874,45 +5992,45 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B430" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C430" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B432" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C432" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="17" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>15</v>
@@ -5920,29 +6038,29 @@
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B435" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C435" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="18" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B436" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C436" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>15</v>
@@ -5950,15 +6068,15 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="15" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>15</v>
@@ -5966,23 +6084,23 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>15</v>
@@ -5990,15 +6108,15 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>15</v>
@@ -6006,31 +6124,31 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>15</v>
@@ -6038,15 +6156,15 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>15</v>
@@ -6054,23 +6172,23 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="15" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="15" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>15</v>
@@ -6078,105 +6196,105 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="17" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B456" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C456" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="B457" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C457" s="18" t="s">
         <v>471</v>
-      </c>
-      <c r="B457" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C457" s="18" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B459" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C459" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B461" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C461" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="15" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>15</v>

--- a/LD1014/list.xlsx
+++ b/LD1014/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="482">
   <si>
     <t xml:space="preserve">LD1014 List</t>
   </si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved A5</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_233</t>
@@ -1855,8 +1858,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ465"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C242" activeCellId="0" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4434,18 +4437,24 @@
       <c r="B244" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C244" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>18</v>
@@ -4453,7 +4462,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>18</v>
@@ -4461,7 +4470,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>15</v>
@@ -4469,7 +4478,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>18</v>
@@ -4477,7 +4486,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>18</v>
@@ -4485,7 +4494,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>15</v>
@@ -4493,18 +4502,18 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B252" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C252" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>18</v>
@@ -4512,18 +4521,18 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B254" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C254" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>18</v>
@@ -4531,18 +4540,18 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B256" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>18</v>
@@ -4550,7 +4559,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>18</v>
@@ -4558,7 +4567,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>15</v>
@@ -4566,18 +4575,18 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B260" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C260" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>18</v>
@@ -4585,18 +4594,18 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B262" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C262" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>15</v>
@@ -4604,7 +4613,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>18</v>
@@ -4612,7 +4621,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>18</v>
@@ -4620,7 +4629,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>18</v>
@@ -4628,7 +4637,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>18</v>
@@ -4636,7 +4645,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B268" s="19" t="s">
         <v>15</v>
@@ -4647,7 +4656,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B269" s="19" t="s">
         <v>15</v>
@@ -4658,7 +4667,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>18</v>
@@ -4666,7 +4675,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>18</v>
@@ -4674,7 +4683,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>18</v>
@@ -4682,7 +4691,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>18</v>
@@ -4690,7 +4699,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>18</v>
@@ -4698,7 +4707,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>15</v>
@@ -4706,7 +4715,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>15</v>
@@ -4714,7 +4723,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>18</v>
@@ -4722,7 +4731,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>18</v>
@@ -4730,7 +4739,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>18</v>
@@ -4738,7 +4747,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>15</v>
@@ -4746,7 +4755,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>15</v>
@@ -4754,7 +4763,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>18</v>
@@ -4762,7 +4771,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>15</v>
@@ -4770,18 +4779,18 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B284" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C284" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>18</v>
@@ -4789,18 +4798,18 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B286" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C286" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>18</v>
@@ -4808,40 +4817,40 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B289" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C289" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B290" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C290" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>18</v>
@@ -4849,18 +4858,18 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>18</v>
@@ -4868,7 +4877,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>18</v>
@@ -4876,7 +4885,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>18</v>
@@ -4887,7 +4896,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>18</v>
@@ -4898,7 +4907,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>15</v>
@@ -4906,7 +4915,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>18</v>
@@ -4914,7 +4923,7 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>18</v>
@@ -4922,7 +4931,7 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>18</v>
@@ -4930,7 +4939,7 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>15</v>
@@ -4938,7 +4947,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>18</v>
@@ -4946,7 +4955,7 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>15</v>
@@ -4954,7 +4963,7 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>18</v>
@@ -4962,7 +4971,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>18</v>
@@ -4970,15 +4979,18 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>18</v>
@@ -4986,7 +4998,7 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>18</v>
@@ -4994,7 +5006,7 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>18</v>
@@ -5002,7 +5014,7 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>18</v>
@@ -5010,7 +5022,7 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>15</v>
@@ -5018,7 +5030,7 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>18</v>
@@ -5026,7 +5038,7 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>18</v>
@@ -5034,7 +5046,7 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>15</v>
@@ -5042,18 +5054,18 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>15</v>
@@ -5061,7 +5073,7 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>18</v>
@@ -5069,18 +5081,18 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>18</v>
@@ -5088,7 +5100,7 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>15</v>
@@ -5096,7 +5108,7 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>18</v>
@@ -5104,7 +5116,7 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>15</v>
@@ -5112,7 +5124,7 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>15</v>
@@ -5120,7 +5132,7 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>15</v>
@@ -5128,7 +5140,7 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>18</v>
@@ -5136,7 +5148,7 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>18</v>
@@ -5144,7 +5156,7 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>18</v>
@@ -5152,15 +5164,18 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>18</v>
@@ -5168,7 +5183,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>18</v>
@@ -5176,7 +5191,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>15</v>
@@ -5184,7 +5199,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>18</v>
@@ -5192,7 +5207,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>18</v>
@@ -5200,7 +5215,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>15</v>
@@ -5208,7 +5223,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>18</v>
@@ -5216,7 +5231,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>18</v>
@@ -5224,7 +5239,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>18</v>
@@ -5232,7 +5247,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>15</v>
@@ -5240,7 +5255,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="17" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>18</v>
@@ -5248,7 +5263,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>15</v>
@@ -5256,7 +5271,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>18</v>
@@ -5264,7 +5279,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>18</v>
@@ -5272,7 +5287,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>18</v>
@@ -5280,7 +5295,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>15</v>
@@ -5288,7 +5303,7 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>18</v>
@@ -5296,7 +5311,7 @@
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>18</v>
@@ -5304,7 +5319,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>15</v>
@@ -5312,7 +5327,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>18</v>
@@ -5320,7 +5335,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>18</v>
@@ -5328,7 +5343,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>18</v>
@@ -5336,7 +5351,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="17" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>18</v>
@@ -5344,7 +5359,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>15</v>
@@ -5352,7 +5367,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>18</v>
@@ -5360,7 +5375,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>18</v>
@@ -5368,7 +5383,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>18</v>
@@ -5376,7 +5391,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>15</v>
@@ -5384,18 +5399,18 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B357" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C357" s="18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>18</v>
@@ -5403,7 +5418,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>18</v>
@@ -5411,7 +5426,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>15</v>
@@ -5419,7 +5434,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>18</v>
@@ -5427,7 +5442,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>15</v>
@@ -5435,7 +5450,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>18</v>
@@ -5443,18 +5458,18 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B364" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C364" s="18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>15</v>
@@ -5462,7 +5477,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>18</v>
@@ -5470,7 +5485,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>18</v>
@@ -5478,7 +5493,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>18</v>
@@ -5486,18 +5501,18 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B369" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C369" s="18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>18</v>
@@ -5505,7 +5520,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>18</v>
@@ -5513,7 +5528,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>18</v>
@@ -5521,18 +5536,18 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B373" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C373" s="18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>18</v>
@@ -5540,7 +5555,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>15</v>
@@ -5548,7 +5563,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>18</v>
@@ -5556,7 +5571,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>15</v>
@@ -5564,7 +5579,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>15</v>
@@ -5572,7 +5587,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>18</v>
@@ -5580,7 +5595,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>18</v>
@@ -5588,7 +5603,7 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>18</v>
@@ -5596,7 +5611,7 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="17" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>18</v>
@@ -5604,7 +5619,7 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>18</v>
@@ -5612,7 +5627,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>15</v>
@@ -5620,7 +5635,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>18</v>
@@ -5628,7 +5643,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>15</v>
@@ -5636,7 +5651,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>18</v>
@@ -5644,7 +5659,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>15</v>
@@ -5652,7 +5667,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>15</v>
@@ -5660,7 +5675,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>18</v>
@@ -5668,7 +5683,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>15</v>
@@ -5676,7 +5691,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>18</v>
@@ -5684,23 +5699,29 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>18</v>
@@ -5708,7 +5729,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>15</v>
@@ -5716,7 +5737,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="17" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>18</v>
@@ -5724,7 +5745,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>18</v>
@@ -5732,7 +5753,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>18</v>
@@ -5740,7 +5761,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>18</v>
@@ -5748,7 +5769,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>15</v>
@@ -5756,7 +5777,7 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>18</v>
@@ -5764,7 +5785,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>18</v>
@@ -5772,7 +5793,7 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>18</v>
@@ -5780,7 +5801,7 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>15</v>
@@ -5788,7 +5809,7 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>15</v>
@@ -5796,7 +5817,7 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>15</v>
@@ -5804,29 +5825,29 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B408" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C408" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="B409" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C409" s="18" t="s">
         <v>423</v>
-      </c>
-      <c r="B409" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C409" s="18" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="17" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>18</v>
@@ -5834,7 +5855,7 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>15</v>
@@ -5842,7 +5863,7 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>18</v>
@@ -5850,7 +5871,7 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>15</v>
@@ -5858,7 +5879,7 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>15</v>
@@ -5866,18 +5887,18 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B415" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C415" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>18</v>
@@ -5885,18 +5906,18 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B417" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C417" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>15</v>
@@ -5904,7 +5925,7 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>15</v>
@@ -5912,7 +5933,7 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="15" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>18</v>
@@ -5920,7 +5941,7 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>18</v>
@@ -5928,7 +5949,7 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="15" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>18</v>
@@ -5936,7 +5957,7 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>18</v>
@@ -5944,7 +5965,7 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>15</v>
@@ -5952,7 +5973,7 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>15</v>
@@ -5960,7 +5981,7 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>18</v>
@@ -5968,7 +5989,7 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>15</v>
@@ -5976,7 +5997,7 @@
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>15</v>
@@ -5984,7 +6005,7 @@
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>15</v>
@@ -5992,18 +6013,18 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="18" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B430" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C430" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>18</v>
@@ -6011,18 +6032,18 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B432" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C432" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>18</v>
@@ -6030,7 +6051,7 @@
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>15</v>
@@ -6038,29 +6059,29 @@
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="18" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B435" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C435" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="18" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B436" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C436" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>15</v>
@@ -6068,7 +6089,7 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>18</v>
@@ -6076,7 +6097,7 @@
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>15</v>
@@ -6084,7 +6105,7 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>18</v>
@@ -6092,7 +6113,7 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>18</v>
@@ -6100,7 +6121,7 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>15</v>
@@ -6108,7 +6129,7 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>18</v>
@@ -6116,7 +6137,7 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>15</v>
@@ -6124,7 +6145,7 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>18</v>
@@ -6132,7 +6153,7 @@
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>18</v>
@@ -6140,7 +6161,7 @@
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>18</v>
@@ -6148,7 +6169,7 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>15</v>
@@ -6156,7 +6177,7 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>18</v>
@@ -6164,7 +6185,7 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>15</v>
@@ -6172,7 +6193,7 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>18</v>
@@ -6180,7 +6201,7 @@
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="15" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>18</v>
@@ -6188,7 +6209,7 @@
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>15</v>
@@ -6196,7 +6217,7 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="15" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>18</v>
@@ -6204,7 +6225,7 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="17" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>18</v>
@@ -6212,73 +6233,73 @@
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B456" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C456" s="18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="B457" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C457" s="18" t="s">
         <v>472</v>
-      </c>
-      <c r="B457" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C457" s="18" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B459" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C459" s="18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B461" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C461" s="18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>18</v>
@@ -6286,7 +6307,7 @@
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>18</v>
@@ -6294,7 +6315,7 @@
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>15</v>
